--- a/3 Data/wristbands/v4_test.xlsx
+++ b/3 Data/wristbands/v4_test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\wristband\v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\thesis\Thesis\3 Data\wristbands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FAC84-B1F2-4DB4-90E3-437F0F81CCE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3F1B9-67A5-47E4-A9DA-D41A25219E93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="calibration" sheetId="2" r:id="rId1"/>
-    <sheet name="random" sheetId="3" r:id="rId2"/>
+    <sheet name="calibration" sheetId="1" r:id="rId1"/>
+    <sheet name="random" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
